--- a/template-export.xlsx
+++ b/template-export.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franklin.furtado\Documents\Personal\São Paulo\Catequese\Lista Matricula\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AB771D-715B-4471-B4CF-DDE5AFA2DCA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D34284-FA01-45F5-BCF0-FE3DBDF22801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -167,46 +167,46 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -391,7 +391,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95E14A6D-BF49-4D8C-BBA9-89110A04418F}" name="Table1" displayName="Table1" ref="B8:G11" totalsRowCount="1" headerRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95E14A6D-BF49-4D8C-BBA9-89110A04418F}" name="TABELA_CATEQUISTAS" displayName="TABELA_CATEQUISTAS" ref="B8:G11" totalsRowCount="1" headerRowDxfId="17">
   <autoFilter ref="B8:G10" xr:uid="{95E14A6D-BF49-4D8C-BBA9-89110A04418F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{869676B2-C76A-40D4-A946-2AB2377FCE60}" name="Catequista" totalsRowLabel="Total"/>
@@ -406,16 +406,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{04C92C3B-770B-4763-BB29-3DE90605FC3A}" name="Table2" displayName="Table2" ref="B8:H11" totalsRowCount="1" headerRowDxfId="16" dataDxfId="15" totalsRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{04C92C3B-770B-4763-BB29-3DE90605FC3A}" name="TABELA_DETALHE" displayName="TABELA_DETALHE" ref="B8:H11" totalsRowCount="1" headerRowDxfId="16" dataDxfId="15" totalsRowDxfId="14">
   <autoFilter ref="B8:H10" xr:uid="{04C92C3B-770B-4763-BB29-3DE90605FC3A}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{15F46BA9-1582-4B73-B6A7-70EFB4690C2C}" name="Centro" dataDxfId="13" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{F03BFE9D-CDDA-4E14-9D11-0510B4C11710}" name="Etapa" dataDxfId="12" totalsRowDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{CA2345E9-B69B-49B0-804A-BFAAE7B1200F}" name="Sala" dataDxfId="11" totalsRowDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{F55F3B55-C622-43A2-9DA4-E3118CB16DB5}" name="Horario" dataDxfId="10" totalsRowDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{FF5A5055-9CE2-4754-A132-9B809DD13437}" name="Catequista" dataDxfId="9" totalsRowDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{3B1AC92C-C218-4856-8F89-ACB58534F688}" name="Nome" dataDxfId="8" totalsRowDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{DE3AACDA-8A8C-48C1-84E2-36CCDB697449}" name="Nascimento" dataDxfId="7" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{15F46BA9-1582-4B73-B6A7-70EFB4690C2C}" name="Centro" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{F03BFE9D-CDDA-4E14-9D11-0510B4C11710}" name="Etapa" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{CA2345E9-B69B-49B0-804A-BFAAE7B1200F}" name="Sala" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{F55F3B55-C622-43A2-9DA4-E3118CB16DB5}" name="Horario" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{FF5A5055-9CE2-4754-A132-9B809DD13437}" name="Catequista" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{3B1AC92C-C218-4856-8F89-ACB58534F688}" name="Nome" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{DE3AACDA-8A8C-48C1-84E2-36CCDB697449}" name="Nascimento" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -746,7 +746,7 @@
   <dimension ref="B3:G11"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -825,7 +825,7 @@
         <v>13</v>
       </c>
       <c r="G11">
-        <f>SUBTOTAL(109,Table1[Catecumenos])</f>
+        <f>SUBTOTAL(109,TABELA_CATEQUISTAS[Catecumenos])</f>
         <v>0</v>
       </c>
     </row>

--- a/template-export.xlsx
+++ b/template-export.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franklin.furtado\Documents\Personal\São Paulo\Catequese\Lista Matricula\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D34284-FA01-45F5-BCF0-FE3DBDF22801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AEDDE8-2D6D-46C8-90D1-2109BDAA306D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -853,7 +853,7 @@
   <dimension ref="B3:H11"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
